--- a/itaipava.xlsx
+++ b/itaipava.xlsx
@@ -2,25 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Laet\Documents\2° semestre\Ciencias dos Dados\Pojeto 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="361">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1162,7 +1170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1174,6 +1182,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1211,8 +1235,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1220,7 +1246,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1282,9 +1310,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1312,31 +1340,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1364,23 +1375,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1559,11 +1553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="E175" sqref="E175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="136.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2970,635 +2964,1016 @@
       <c r="A175" t="s">
         <v>131</v>
       </c>
+      <c r="B175" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>210</v>
+      </c>
+      <c r="B301" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3987,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
